--- a/extra files/Gannt chart.xlsx
+++ b/extra files/Gannt chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efbaca3051003bc4/Documenten/GitHub/opdr5.Game/opdr5.Game/extra files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyonk\Documents\GitHub\opdr5.Game\extra files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81206539-E5D7-4485-B6FF-2F408595BA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1286DF3-01E0-45B6-89F2-28B2F0153494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{AEB222DF-1E63-44DB-A65B-25DD5BF9F1F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AEB222DF-1E63-44DB-A65B-25DD5BF9F1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,10 @@
     <t>Gijs Haan</t>
   </si>
   <si>
-    <t>Gyon Kusters</t>
-  </si>
-  <si>
     <t>Jasper Keulen</t>
+  </si>
+  <si>
+    <t>Gyon Kösters</t>
   </si>
 </sst>
 </file>
@@ -255,6 +255,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -267,9 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -587,16 +587,16 @@
   <dimension ref="A2:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="K36" sqref="J36:K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +612,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -620,7 +620,7 @@
         <v>43797</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -689,47 +689,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="22">
         <v>43787</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="19">
+      <c r="C7" s="24"/>
+      <c r="D7" s="22">
         <v>43788</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22">
         <v>43789</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="19">
+      <c r="G7" s="24"/>
+      <c r="H7" s="22">
         <v>43790</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="19">
+      <c r="I7" s="24"/>
+      <c r="J7" s="22">
         <v>43791</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19">
+      <c r="K7" s="22"/>
+      <c r="L7" s="22">
         <v>43794</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19">
+      <c r="M7" s="22"/>
+      <c r="N7" s="22">
         <v>43795</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19">
+      <c r="O7" s="22"/>
+      <c r="P7" s="22">
         <v>43796</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19">
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22">
         <v>43797</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19">
+      <c r="S7" s="22"/>
+      <c r="T7" s="22">
         <v>43798</v>
       </c>
-      <c r="U7" s="19"/>
+      <c r="U7" s="22"/>
       <c r="X7" s="7">
         <v>2</v>
       </c>
@@ -738,12 +738,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -770,8 +770,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -781,7 +781,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="20"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -800,9 +800,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="24"/>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -816,7 +816,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="24"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -830,8 +830,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -860,8 +860,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -890,8 +890,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4"/>
@@ -922,10 +922,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -940,7 +940,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="24"/>
+      <c r="R14" s="20"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -952,8 +952,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -982,8 +982,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1012,8 +1012,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1023,7 +1023,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1035,9 +1035,9 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1060,8 +1060,8 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1083,8 +1083,8 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1106,10 +1106,10 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="23"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1122,15 +1122,15 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="24"/>
+      <c r="P21" s="20"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1152,9 +1152,9 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>18</v>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1170,15 +1170,15 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="24"/>
+      <c r="P23" s="20"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1200,8 +1200,8 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1212,7 +1212,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -1223,10 +1223,10 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="23"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1246,8 +1246,8 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1269,7 +1269,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1291,7 +1291,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1313,7 +1313,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
